--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
@@ -531,46 +531,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4675276666666666</v>
+        <v>2.765038666666667</v>
       </c>
       <c r="H2">
-        <v>1.402583</v>
+        <v>8.295116</v>
       </c>
       <c r="I2">
-        <v>0.1632394805509195</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="J2">
-        <v>0.1632394805509196</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N2">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q2">
-        <v>0.06189442936444443</v>
+        <v>0.3803826826551112</v>
       </c>
       <c r="R2">
-        <v>0.5570498642799999</v>
+        <v>3.423444143896</v>
       </c>
       <c r="S2">
-        <v>0.04860031776591765</v>
+        <v>0.1634604982441331</v>
       </c>
       <c r="T2">
-        <v>0.04860031776591766</v>
+        <v>0.1634604982441331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,46 +593,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4675276666666666</v>
+        <v>2.765038666666667</v>
       </c>
       <c r="H3">
-        <v>1.402583</v>
+        <v>8.295116</v>
       </c>
       <c r="I3">
-        <v>0.1632394805509195</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="J3">
-        <v>0.1632394805509196</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N3">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O3">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P3">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q3">
-        <v>0.1459975137934444</v>
+        <v>0.932833721536889</v>
       </c>
       <c r="R3">
-        <v>1.313977624141</v>
+        <v>8.395503493832001</v>
       </c>
       <c r="S3">
-        <v>0.1146391627850019</v>
+        <v>0.4008633196364569</v>
       </c>
       <c r="T3">
-        <v>0.1146391627850019</v>
+        <v>0.4008633196364569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,46 +655,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.396532333333333</v>
+        <v>2.134699</v>
       </c>
       <c r="H4">
-        <v>7.189597</v>
+        <v>6.404097</v>
       </c>
       <c r="I4">
-        <v>0.8367605194490804</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="J4">
-        <v>0.8367605194490806</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N4">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q4">
-        <v>0.3172689271688889</v>
+        <v>0.2936676951646667</v>
       </c>
       <c r="R4">
-        <v>2.85542034452</v>
+        <v>2.643009256482</v>
       </c>
       <c r="S4">
-        <v>0.2491237230230855</v>
+        <v>0.1261967748761751</v>
       </c>
       <c r="T4">
-        <v>0.2491237230230856</v>
+        <v>0.1261967748761751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,46 +717,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.396532333333333</v>
+        <v>2.134699</v>
       </c>
       <c r="H5">
-        <v>7.189597</v>
+        <v>6.404097</v>
       </c>
       <c r="I5">
-        <v>0.8367605194490804</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="J5">
-        <v>0.8367605194490806</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N5">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O5">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P5">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q5">
-        <v>0.7483787320798889</v>
+        <v>0.7201777090993333</v>
       </c>
       <c r="R5">
-        <v>6.735408588718999</v>
+        <v>6.481599381894</v>
       </c>
       <c r="S5">
-        <v>0.5876367964259949</v>
+        <v>0.309479407243235</v>
       </c>
       <c r="T5">
-        <v>0.587636796425995</v>
+        <v>0.309479407243235</v>
       </c>
     </row>
   </sheetData>
